--- a/examples/experiment1/data_odenet_True.xlsx
+++ b/examples/experiment1/data_odenet_True.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="batch_size_64" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="batch_size_1.0" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -470,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3671286106109619</v>
+        <v>0.6521704196929932</v>
       </c>
       <c r="C2" t="n">
         <v>32</v>
@@ -479,10 +479,10 @@
         <v>38</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08973333333333333</v>
+        <v>0.1123666666666667</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0911</v>
+        <v>0.1135</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2761101722717285</v>
+        <v>0.426203727722168</v>
       </c>
       <c r="C3" t="n">
-        <v>20.0025218173256</v>
+        <v>20.27933154595121</v>
       </c>
       <c r="D3" t="n">
-        <v>20.99655922568553</v>
+        <v>21.38379761915692</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9832666666666666</v>
+        <v>0.9769833333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9853</v>
+        <v>0.9805</v>
       </c>
     </row>
   </sheetData>

--- a/examples/experiment1/data_odenet_True.xlsx
+++ b/examples/experiment1/data_odenet_True.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="batch_size_1.0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="percentage_1.0" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6521704196929932</v>
+        <v>0.6505656242370605</v>
       </c>
       <c r="C2" t="n">
         <v>32</v>
@@ -479,10 +479,10 @@
         <v>38</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1123666666666667</v>
+        <v>0.1044166666666667</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1135</v>
+        <v>0.1028</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,979 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.426203727722168</v>
+        <v>0.4510958194732666</v>
       </c>
       <c r="C3" t="n">
-        <v>20.27933154595121</v>
+        <v>20.27992085181876</v>
       </c>
       <c r="D3" t="n">
-        <v>21.38379761915692</v>
+        <v>20.17048980044938</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9769833333333333</v>
+        <v>0.9767166666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9805</v>
+        <v>0.9761</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.480557918548584</v>
+      </c>
+      <c r="C4" t="n">
+        <v>20.13070028567983</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.00154514582966</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9823</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9833</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5152053833007812</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20.12934790251747</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.00001400362728</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9904500000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9896</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4378952980041504</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20.1293356458945</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.00000012691453</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9926166666666667</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9911</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5197882652282715</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20.12933553481297</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20.00000000115014</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9919333333333333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9907</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4977197647094727</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20.12933553380624</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20.00000000001033</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9931666666666666</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9923999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.417036771774292</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20.14057916544439</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9933999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9929</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4891805648803711</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20.13305196639085</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9929</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9928</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5048797130584717</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20.184087149329</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9949166666666667</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9931</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4384734630584717</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20.17496061306383</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9896</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9897</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4962913990020752</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20.12974903302557</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9958833333333333</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9947</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4886329174041748</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20.95613458246757</v>
+      </c>
+      <c r="D14" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9962333333333333</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9948</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4666666984558105</v>
+      </c>
+      <c r="C15" t="n">
+        <v>21.09498299008393</v>
+      </c>
+      <c r="D15" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.99405</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9913</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4948296546936035</v>
+      </c>
+      <c r="C16" t="n">
+        <v>20.49525807812744</v>
+      </c>
+      <c r="D16" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9960333333333333</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9932</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4858179092407227</v>
+      </c>
+      <c r="C17" t="n">
+        <v>23.13088774924111</v>
+      </c>
+      <c r="D17" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9972</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9947</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.473867654800415</v>
+      </c>
+      <c r="C18" t="n">
+        <v>23.34659062068994</v>
+      </c>
+      <c r="D18" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9952666666666666</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9922</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5040028095245361</v>
+      </c>
+      <c r="C19" t="n">
+        <v>21.85763718158735</v>
+      </c>
+      <c r="D19" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9966666666666667</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9947</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4630193710327148</v>
+      </c>
+      <c r="C20" t="n">
+        <v>22.89436585545446</v>
+      </c>
+      <c r="D20" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9970333333333333</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9941</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4958739280700684</v>
+      </c>
+      <c r="C21" t="n">
+        <v>22.61120498097623</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9974333333333333</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9941</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4758143424987793</v>
+      </c>
+      <c r="C22" t="n">
+        <v>24.84708666059363</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.99785</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9946</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4410622119903564</v>
+      </c>
+      <c r="C23" t="n">
+        <v>23.85291677584374</v>
+      </c>
+      <c r="D23" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9976333333333334</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9948</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4947404861450195</v>
+      </c>
+      <c r="C24" t="n">
+        <v>24.91048160516745</v>
+      </c>
+      <c r="D24" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9971333333333333</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.994</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.49365234375</v>
+      </c>
+      <c r="C25" t="n">
+        <v>25.69481362112453</v>
+      </c>
+      <c r="D25" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9978166666666667</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9944</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4126033782958984</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24.44977557222317</v>
+      </c>
+      <c r="D26" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9983666666666666</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9951</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5055263042449951</v>
+      </c>
+      <c r="C27" t="n">
+        <v>26.0496468425347</v>
+      </c>
+      <c r="D27" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9977</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9943</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.4905779361724854</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26.11030009753509</v>
+      </c>
+      <c r="D28" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9961</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9919</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.43975830078125</v>
+      </c>
+      <c r="C29" t="n">
+        <v>26.0235350325007</v>
+      </c>
+      <c r="D29" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.99705</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9942</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.4849193096160889</v>
+      </c>
+      <c r="C30" t="n">
+        <v>26.14570649867117</v>
+      </c>
+      <c r="D30" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9981833333333333</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9946</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.4907646179199219</v>
+      </c>
+      <c r="C31" t="n">
+        <v>26.08443285557727</v>
+      </c>
+      <c r="D31" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9974333333333333</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.994</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.4248051643371582</v>
+      </c>
+      <c r="C32" t="n">
+        <v>26.04608365025971</v>
+      </c>
+      <c r="D32" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9973666666666666</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9952</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5418260097503662</v>
+      </c>
+      <c r="C33" t="n">
+        <v>26.11832484896673</v>
+      </c>
+      <c r="D33" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9985333333333334</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9946</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5116360187530518</v>
+      </c>
+      <c r="C34" t="n">
+        <v>26.16768475466112</v>
+      </c>
+      <c r="D34" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9978</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9939</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.4889554977416992</v>
+      </c>
+      <c r="C35" t="n">
+        <v>26.16813210255078</v>
+      </c>
+      <c r="D35" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9983166666666666</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4912049770355225</v>
+      </c>
+      <c r="C36" t="n">
+        <v>26.16813615685622</v>
+      </c>
+      <c r="D36" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9983</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9941</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.4567868709564209</v>
+      </c>
+      <c r="C37" t="n">
+        <v>26.16813619360031</v>
+      </c>
+      <c r="D37" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9984333333333333</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9935</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5078630447387695</v>
+      </c>
+      <c r="C38" t="n">
+        <v>26.16813619393333</v>
+      </c>
+      <c r="D38" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9974833333333334</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9949</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5183379650115967</v>
+      </c>
+      <c r="C39" t="n">
+        <v>26.16813619393634</v>
+      </c>
+      <c r="D39" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9991666666666666</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9948</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4434468746185303</v>
+      </c>
+      <c r="C40" t="n">
+        <v>26.16813619393637</v>
+      </c>
+      <c r="D40" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9990333333333333</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9952</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4816184043884277</v>
+      </c>
+      <c r="C41" t="n">
+        <v>26.16813619393637</v>
+      </c>
+      <c r="D41" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9988</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9948</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.4753761291503906</v>
+      </c>
+      <c r="C42" t="n">
+        <v>26.16813619393637</v>
+      </c>
+      <c r="D42" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9984</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9941</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.4641628265380859</v>
+      </c>
+      <c r="C43" t="n">
+        <v>26.16813619393637</v>
+      </c>
+      <c r="D43" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9990333333333333</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9957</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.4835989475250244</v>
+      </c>
+      <c r="C44" t="n">
+        <v>26.16813619393637</v>
+      </c>
+      <c r="D44" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.99855</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9947</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5222346782684326</v>
+      </c>
+      <c r="C45" t="n">
+        <v>26.16813619393637</v>
+      </c>
+      <c r="D45" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9991</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9953</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5019237995147705</v>
+      </c>
+      <c r="C46" t="n">
+        <v>26.16813619393637</v>
+      </c>
+      <c r="D46" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.9991166666666667</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.4697952270507812</v>
+      </c>
+      <c r="C47" t="n">
+        <v>26.16813619393637</v>
+      </c>
+      <c r="D47" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.99925</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.4784395694732666</v>
+      </c>
+      <c r="C48" t="n">
+        <v>26.16813619393637</v>
+      </c>
+      <c r="D48" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9974</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9933999999999999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.455291748046875</v>
+      </c>
+      <c r="C49" t="n">
+        <v>26.16813619393637</v>
+      </c>
+      <c r="D49" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.99865</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9948</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5261862277984619</v>
+      </c>
+      <c r="C50" t="n">
+        <v>26.16813619393637</v>
+      </c>
+      <c r="D50" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.99875</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9942</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.4574069976806641</v>
+      </c>
+      <c r="C51" t="n">
+        <v>26.16813619393637</v>
+      </c>
+      <c r="D51" t="n">
+        <v>20.00000000000009</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9990166666666667</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9953</v>
       </c>
     </row>
   </sheetData>
